--- a/data/trans_camb/P1402-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1402-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>5.502024467378816</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.561464088152996</v>
+        <v>6.561464088152993</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.737444885728801</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.595003702790964</v>
+        <v>2.431593182761129</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.40160906277014</v>
+        <v>4.645703383438284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.458148373319565</v>
+        <v>3.451985896224884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.425068004779959</v>
+        <v>0.9550055414009897</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.293620284560682</v>
+        <v>2.08250102454824</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.595344162724484</v>
+        <v>3.485095651189514</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.539583934614566</v>
+        <v>2.726407812841405</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.319033947143641</v>
+        <v>4.005892773158803</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.563371059712316</v>
+        <v>4.680494072145742</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.668751777614629</v>
+        <v>9.134135428345667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.27184881218665</v>
+        <v>11.54769401644566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.42441096786201</v>
+        <v>10.47564942250231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.050979150108841</v>
+        <v>6.604758904286155</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.73351869655423</v>
+        <v>8.627243058328339</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.439173266230041</v>
+        <v>9.316306578902973</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.867871710614598</v>
+        <v>6.842807299131136</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.784028113024691</v>
+        <v>8.851440384404752</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.65542491881712</v>
+        <v>9.046206789373626</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.385162280254028</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.459327014080311</v>
+        <v>0.4593270140803108</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3586386842738886</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1943884889510963</v>
+        <v>0.1755001619713913</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3102365589037776</v>
+        <v>0.3436356241250411</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2558811869045207</v>
+        <v>0.2540435755325842</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08591337621954975</v>
+        <v>0.05646790742035785</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1372763292282589</v>
+        <v>0.1295804834142784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2234507051871669</v>
+        <v>0.2243446686064477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1813999865907409</v>
+        <v>0.1919696391964042</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3065653960458227</v>
+        <v>0.2901704062669589</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3190025022880825</v>
+        <v>0.3199961834128595</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8163476651410021</v>
+        <v>0.8501366661791364</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.044247097526525</v>
+        <v>1.104692609451373</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9941702376887706</v>
+        <v>1.005299307745434</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5347539899429555</v>
+        <v>0.5098612171744644</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6703675768288453</v>
+        <v>0.6493509577113474</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7348266938229919</v>
+        <v>0.7180553488693765</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5491905541440794</v>
+        <v>0.5561438993483742</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7203252771387595</v>
+        <v>0.7143944662381757</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7009961142741311</v>
+        <v>0.727881554914527</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.98274753305806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.637757834004068</v>
+        <v>4.637757834004069</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.022530958748779</v>
@@ -869,7 +869,7 @@
         <v>2.233146702688844</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.482559795780978</v>
+        <v>2.482559795780977</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.9011810087858156</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4369636502509793</v>
+        <v>-0.3489718358413323</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.676891486546684</v>
+        <v>1.631539793108589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.351910131344357</v>
+        <v>3.494995429034377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1170405812049156</v>
+        <v>-0.06872734632567429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9677391301806757</v>
+        <v>1.128405094994239</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.475815461743702</v>
+        <v>1.468886924252036</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1001284608124989</v>
+        <v>0.07381991435721394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.683474914923821</v>
+        <v>1.742058484240658</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.68833471711857</v>
+        <v>2.729982144976788</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.879693692638536</v>
+        <v>1.944561317167249</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.227138637220813</v>
+        <v>4.397266056755349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.932666275356859</v>
+        <v>6.119353065204221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.074625228735293</v>
+        <v>2.163707187145446</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.36653036706449</v>
+        <v>3.413825582628312</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.419174601192836</v>
+        <v>3.35511030210725</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.704250265789599</v>
+        <v>1.698370020434278</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.471480702732966</v>
+        <v>3.545722290925468</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.389100352321242</v>
+        <v>4.420345418027139</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1115313014933729</v>
+        <v>-0.09343931638851898</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4391974651883489</v>
+        <v>0.4370036742185212</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8993913286521645</v>
+        <v>0.9574565357472008</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08402186055614462</v>
+        <v>-0.04186326633669131</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3385788978746258</v>
+        <v>0.427936121989401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4916726652758893</v>
+        <v>0.5611017451572011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03214484597547173</v>
+        <v>0.01885262721173915</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5570314990905119</v>
+        <v>0.5716648436173775</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8927622044573443</v>
+        <v>0.9184120708174762</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8075343044089375</v>
+        <v>0.772363464808536</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.719252588274506</v>
+        <v>1.84116592391111</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.50797999136102</v>
+        <v>2.582378764271707</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.258823934206537</v>
+        <v>1.330610992129398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.14224347568986</v>
+        <v>2.314793043057885</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.291426963043719</v>
+        <v>2.12645321156399</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7934830784636276</v>
+        <v>0.7692828668437234</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.59919647816398</v>
+        <v>1.594754886707153</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.102878033859775</v>
+        <v>2.047903262890905</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.056503404313631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.685990893625879</v>
+        <v>4.685990893625877</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.2302847470718914</v>
@@ -1092,7 +1092,7 @@
         <v>1.460375349454213</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.848869856044906</v>
+        <v>2.848869856044904</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.496373986754258</v>
+        <v>-1.445685704242867</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2470365008415138</v>
+        <v>-0.04691114923601506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.594641605422602</v>
+        <v>2.461473503906587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.004965816036036</v>
+        <v>-2.034292561211312</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9529648900749375</v>
+        <v>-0.9704542120606467</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6743974385171768</v>
+        <v>-0.4948153796954955</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.369914277617203</v>
+        <v>-1.258333374882301</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03774958323761022</v>
+        <v>-0.005648447900107324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.547210484442872</v>
+        <v>1.418223091230499</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.620470818179413</v>
+        <v>2.665864583956749</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.326256155758194</v>
+        <v>4.904645522974797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.39741772444231</v>
+        <v>6.97951177632968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.408350268153962</v>
+        <v>1.521969038307048</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.774807365702964</v>
+        <v>2.821733102769133</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.519687401233619</v>
+        <v>2.609046936927169</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.476083693557144</v>
+        <v>1.436161108032306</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.939321465203714</v>
+        <v>2.888622044387889</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.205089659626712</v>
+        <v>4.147792642596564</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.7116138095068313</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.388201418085396</v>
+        <v>1.388201418085395</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5385318898760243</v>
+        <v>-0.5222152276996453</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1723038518270369</v>
+        <v>-0.06999109967791051</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7198691856350411</v>
+        <v>0.6332288869533804</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7809370143551843</v>
+        <v>-0.7913980196274899</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.396992318158203</v>
+        <v>-0.4354983907982022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2796755950398518</v>
+        <v>-0.215734071459935</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5422674788392833</v>
+        <v>-0.5086579762423104</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.004687493179414929</v>
+        <v>-0.006186785484439321</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4765802440698352</v>
+        <v>0.4589238020862013</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.672597497381544</v>
+        <v>1.719288380977299</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.823470256505185</v>
+        <v>3.106588642144928</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.175285459947431</v>
+        <v>5.033438426594195</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.610033315389055</v>
+        <v>1.70481898477634</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.149138103654214</v>
+        <v>2.838723361488685</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.732646757261459</v>
+        <v>3.096166589600335</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.003680951105618</v>
+        <v>1.038022474814456</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.093679964139941</v>
+        <v>1.95206078255357</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.924943503840116</v>
+        <v>2.970454018320971</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.629543026207811</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.03295216863242</v>
+        <v>1.032952168632421</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.851108136468738</v>
@@ -1306,7 +1306,7 @@
         <v>2.366048552135411</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.316998221894349</v>
+        <v>2.316998221894348</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6136573137502038</v>
+        <v>0.5343829197615645</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.963966375603348</v>
+        <v>1.846881979930029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.439001306756141</v>
+        <v>2.452364945188208</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5578347846708737</v>
+        <v>0.5782486658825416</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4364579185187031</v>
+        <v>0.3995037833566226</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.0673294205751547</v>
+        <v>-0.1225625174447976</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9729567657724066</v>
+        <v>0.935502918731154</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.469756008235605</v>
+        <v>1.460252311244346</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.476127410305955</v>
+        <v>1.419931932666584</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.013868230867299</v>
+        <v>3.116224195150096</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.426622775985538</v>
+        <v>4.343338052059123</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.820695669720379</v>
+        <v>4.84638835216646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.164327641754794</v>
+        <v>3.126086282559578</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.965021437108694</v>
+        <v>3.075476176719032</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.042081782221559</v>
+        <v>2.116182450713092</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.784825953767478</v>
+        <v>2.764420034215094</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.320659690042595</v>
+        <v>3.242668574777335</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.150273597072473</v>
+        <v>3.131327402796411</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.2401997078272916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1522603607972688</v>
+        <v>0.152260360797269</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2970829687766109</v>
@@ -1411,7 +1411,7 @@
         <v>0.3797253732993144</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3718533222611261</v>
+        <v>0.3718533222611258</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09679886505885633</v>
+        <v>0.08769155745086499</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3122237350631762</v>
+        <v>0.307224454387108</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3929405481271795</v>
+        <v>0.3828195234894679</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.07479991961120745</v>
+        <v>0.07731490621636677</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06222542600089739</v>
+        <v>0.05307380230042878</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.009561775538738744</v>
+        <v>-0.01829850180497305</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1467548216756911</v>
+        <v>0.1396922520504759</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2218261655774665</v>
+        <v>0.2222872499674078</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2112622882967143</v>
+        <v>0.210239290361505</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5741831459942448</v>
+        <v>0.6023739184847016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8587548513593939</v>
+        <v>0.862211312357661</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9534381157623111</v>
+        <v>0.9380472759881419</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5084510594012811</v>
+        <v>0.5068799304044047</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4881929339022243</v>
+        <v>0.4960735179049363</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3353271923138694</v>
+        <v>0.3495564534173102</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4794231639553098</v>
+        <v>0.4755763105350957</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.571864892854682</v>
+        <v>0.5590733912083159</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5458911249765348</v>
+        <v>0.5387789182159701</v>
       </c>
     </row>
     <row r="28">
